--- a/Generator/calculations.xlsx
+++ b/Generator/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\school\2ndyr\1stsem\emag\generotr\Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47EA0FF-47EB-456E-B394-E1424BC715F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03051441-46E6-4EE9-9185-0A86B94001EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E67C789-7B57-4E5C-BA7F-112E69E382B5}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="1848" windowWidth="15012" windowHeight="6216" xr2:uid="{3E67C789-7B57-4E5C-BA7F-112E69E382B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>mm</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>inrunner rotor slot holder for magnet</t>
+  </si>
+  <si>
+    <t>qdi</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473C1948-D3D8-46A8-BC86-81C9A30ACD73}">
-  <dimension ref="D6:H12"/>
+  <dimension ref="D6:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,8 +475,8 @@
     <col min="7" max="7" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -481,8 +484,11 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>0</v>
       </c>
@@ -490,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>1</v>
       </c>
@@ -504,7 +510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
@@ -520,7 +526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -535,7 +541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
